--- a/Excel/tst.xlsx
+++ b/Excel/tst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Contagem</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Abáco</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +90,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,14 +136,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +478,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,8 +502,12 @@
       <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -472,8 +526,12 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -494,8 +552,12 @@
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -516,8 +578,12 @@
       <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -536,10 +602,14 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -560,8 +630,12 @@
       <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -582,8 +656,12 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>65</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -604,8 +682,12 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -619,7 +701,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -630,7 +712,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/Excel/tst.xlsx
+++ b/Excel/tst.xlsx
@@ -72,10 +72,10 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Abáco</t>
-  </si>
-  <si>
     <t>Colunas1</t>
+  </si>
+  <si>
+    <t>Dobro</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,10 +503,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
